--- a/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Edad-trans_orig.xlsx
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6494</v>
+        <v>6489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3124002582305995</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8371216252242162</v>
+        <v>0.836560185748035</v>
       </c>
     </row>
     <row r="9">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7051</v>
+        <v>6442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3217725893216615</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9090002288200119</v>
+        <v>0.8304193875840271</v>
       </c>
     </row>
     <row r="10">
@@ -1091,7 +1091,7 @@
         <v>6565</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3658271524477392</v>
+        <v>0.3658271524477391</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5942</v>
+        <v>4999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.419240500323084</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1</v>
+        <v>0.8413104796993868</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1210,19 +1210,19 @@
         <v>2129</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4960</v>
+        <v>4892</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2418771571056512</v>
+        <v>0.2418771571056511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06756990630964613</v>
+        <v>0.06157474788650198</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5634303114454124</v>
+        <v>0.5556699951799255</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1231,19 +1231,19 @@
         <v>4620</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1728</v>
+        <v>1507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8773</v>
+        <v>8920</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3133531094420731</v>
+        <v>0.3133531094420732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1171929209615167</v>
+        <v>0.1022151554223807</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5949550349570946</v>
+        <v>0.6049498504960549</v>
       </c>
     </row>
     <row r="13">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7949631347246776</v>
+        <v>0.7949631347246777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4305</v>
+        <v>4481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1701459784962277</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4890102268633617</v>
+        <v>0.5089742142569539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1302,19 +1302,19 @@
         <v>3592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8042</v>
+        <v>7525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.243603357599661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07558084136053077</v>
+        <v>0.07529233550385443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5454181400772655</v>
+        <v>0.5103131138361873</v>
       </c>
     </row>
     <row r="14">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2283333847726798</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1352,19 +1352,19 @@
         <v>5176</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2593</v>
+        <v>2680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7341</v>
+        <v>7421</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5879768643981212</v>
+        <v>0.5879768643981211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2945320695179744</v>
+        <v>0.3044372664012726</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8339679975003619</v>
+        <v>0.8429833525228911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1373,19 +1373,19 @@
         <v>6533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3024</v>
+        <v>3156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10172</v>
+        <v>10389</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4430435329582658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2051052605336018</v>
+        <v>0.2140279225339182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6898900015110463</v>
+        <v>0.7046100808621908</v>
       </c>
     </row>
     <row r="15">
@@ -1477,19 +1477,19 @@
         <v>11057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6049</v>
+        <v>6507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15082</v>
+        <v>14611</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.625377644755018</v>
+        <v>0.6253776447550179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.342121271046503</v>
+        <v>0.3679979924174807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8530299791657712</v>
+        <v>0.8263518313370541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1498,19 +1498,19 @@
         <v>6060</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3344</v>
+        <v>3291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9301</v>
+        <v>8811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4194372145283473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2314494310963567</v>
+        <v>0.2278275864644766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6437693950089121</v>
+        <v>0.6098535951045292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1519,19 +1519,19 @@
         <v>17117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11982</v>
+        <v>11515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22586</v>
+        <v>22076</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5327705998709061</v>
+        <v>0.532770599870906</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3729592683247084</v>
+        <v>0.3584091520229092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7029868931785607</v>
+        <v>0.6871131211534532</v>
       </c>
     </row>
     <row r="17">
@@ -1548,19 +1548,19 @@
         <v>4389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1066</v>
+        <v>1114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9196</v>
+        <v>8888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2482206206944473</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06030616821091836</v>
+        <v>0.06298192315797138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5201047514826569</v>
+        <v>0.5026884102737692</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1569,19 +1569,19 @@
         <v>3157</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1130</v>
+        <v>1260</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6167</v>
+        <v>6508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2185353667026104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07824384948152273</v>
+        <v>0.08723238860168513</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4268890233299658</v>
+        <v>0.4504685302217147</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1590,19 +1590,19 @@
         <v>7546</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3833</v>
+        <v>3703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12701</v>
+        <v>12583</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2348717913956423</v>
+        <v>0.2348717913956422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1193120559921481</v>
+        <v>0.1152713600629321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3953205875708502</v>
+        <v>0.3916494542353646</v>
       </c>
     </row>
     <row r="18">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6935</v>
+        <v>6481</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1264017345505347</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.39221038043292</v>
+        <v>0.3665781345451898</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1640,19 +1640,19 @@
         <v>5230</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2626</v>
+        <v>2666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8514</v>
+        <v>8693</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3620274187690424</v>
+        <v>0.3620274187690423</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1817766668044647</v>
+        <v>0.1845218806826648</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.58935547975066</v>
+        <v>0.6016857239351492</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1661,19 +1661,19 @@
         <v>7465</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3469</v>
+        <v>4002</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11942</v>
+        <v>12955</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2323576087334517</v>
+        <v>0.2323576087334516</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1079807047156133</v>
+        <v>0.1245760067130124</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3716922710920447</v>
+        <v>0.4032419379350562</v>
       </c>
     </row>
     <row r="19">
@@ -1765,19 +1765,19 @@
         <v>13328</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9128</v>
+        <v>9188</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15983</v>
+        <v>16215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7471392638440266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5117010167716786</v>
+        <v>0.5150678392003509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8959820949206266</v>
+        <v>0.9089466126864196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1786,19 +1786,19 @@
         <v>3862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1809</v>
+        <v>1831</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6915</v>
+        <v>6859</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3576543958341808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1675135044145943</v>
+        <v>0.1696190481608451</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6404928943955854</v>
+        <v>0.6353100057693722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1807,19 +1807,19 @@
         <v>17190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12568</v>
+        <v>12364</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21536</v>
+        <v>21523</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6002814580282909</v>
+        <v>0.6002814580282908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.438901748058081</v>
+        <v>0.4317705846757605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7520718063194533</v>
+        <v>0.7515915411134776</v>
       </c>
     </row>
     <row r="21">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5903</v>
+        <v>5971</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1089390201279067</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3309145661895887</v>
+        <v>0.3347151691048342</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2951</v>
+        <v>3382</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0629856031336616</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2732943506025221</v>
+        <v>0.3132114774386331</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1878,19 +1878,19 @@
         <v>2623</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6601</v>
+        <v>6820</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09161198500073001</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02447373437093647</v>
+        <v>0.02392353789707782</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2305281737068888</v>
+        <v>0.2381586519645699</v>
       </c>
     </row>
     <row r="22">
@@ -1907,19 +1907,19 @@
         <v>2567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6630</v>
+        <v>7535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1439217160280669</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03400769909638229</v>
+        <v>0.0354997976520624</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3716732360925574</v>
+        <v>0.4224053416316888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -1928,19 +1928,19 @@
         <v>6255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3597</v>
+        <v>3617</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8809</v>
+        <v>8764</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5793600010321576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3331214579435531</v>
+        <v>0.3350405589987706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.815850060106793</v>
+        <v>0.8117187292717349</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -1949,19 +1949,19 @@
         <v>8823</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5188</v>
+        <v>5442</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13492</v>
+        <v>13668</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3081065569709793</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1811715602725554</v>
+        <v>0.1900550876197832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4711386076704196</v>
+        <v>0.4772969481871309</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>12394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8756</v>
+        <v>9588</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14184</v>
+        <v>14259</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8145597854652494</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5754545854463859</v>
+        <v>0.6301923913182211</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9322467751817062</v>
+        <v>0.9371498407531176</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2074,19 +2074,19 @@
         <v>4102</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2227</v>
+        <v>2096</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5135</v>
+        <v>5122</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7465499370586463</v>
+        <v>0.746549937058646</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4054398588739007</v>
+        <v>0.3814665685460574</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9346435983297641</v>
+        <v>0.9323435443492656</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -2095,19 +2095,19 @@
         <v>16495</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13212</v>
+        <v>13157</v>
       </c>
       <c r="T24" s="5" t="n">
         <v>18689</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7965173948044076</v>
+        <v>0.7965173948044074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6379960715092408</v>
+        <v>0.6353054253277958</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9024521748013941</v>
+        <v>0.9024615048945879</v>
       </c>
     </row>
     <row r="25">
@@ -2124,19 +2124,19 @@
         <v>1865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4991</v>
+        <v>4808</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1225466276780287</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03190745942912201</v>
+        <v>0.03160628697560108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3280622829892029</v>
+        <v>0.3159880930445691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1764</v>
+        <v>1840</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06907844785085401</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.321147986157648</v>
+        <v>0.334878368025712</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2166,19 +2166,19 @@
         <v>2244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5357</v>
+        <v>4977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1083620086711091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03751394741403861</v>
+        <v>0.03699038563408783</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.258656489200728</v>
+        <v>0.2403124433290944</v>
       </c>
     </row>
     <row r="26">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3403</v>
+        <v>3195</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06289358685672182</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2236606753610564</v>
+        <v>0.209993294373951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2805</v>
+        <v>2898</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1843716150904998</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5105256380772332</v>
+        <v>0.5274554850617656</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2237,19 +2237,19 @@
         <v>1970</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4692</v>
+        <v>4375</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.09512059652448336</v>
+        <v>0.09512059652448338</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02486439252861364</v>
+        <v>0.02251206391812998</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2265872625004962</v>
+        <v>0.2112630356758019</v>
       </c>
     </row>
     <row r="27">
@@ -2341,19 +2341,19 @@
         <v>3349</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>874</v>
+        <v>1387</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5455</v>
+        <v>5601</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5069090080221973</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1322653066996771</v>
+        <v>0.2099587584744914</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8258391155142071</v>
+        <v>0.847886266945127</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2362,19 +2362,19 @@
         <v>4639</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2300</v>
+        <v>2372</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7091</v>
+        <v>7278</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4107510929444127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.203669019951218</v>
+        <v>0.2100727118989283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6279209652560931</v>
+        <v>0.6444768336927001</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2383,19 +2383,19 @@
         <v>7988</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4712</v>
+        <v>4758</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11095</v>
+        <v>11644</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4462400420339154</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2632444169762295</v>
+        <v>0.265784636990762</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6198378283803136</v>
+        <v>0.6505246092492147</v>
       </c>
     </row>
     <row r="29">
@@ -2412,19 +2412,19 @@
         <v>1643</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3768</v>
+        <v>3855</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2487769271123606</v>
+        <v>0.2487769271123607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0585025804189914</v>
+        <v>0.05564324593078025</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5704415993740608</v>
+        <v>0.5835785163524856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2433,19 +2433,19 @@
         <v>1285</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3149</v>
+        <v>3442</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1138034013349028</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02756027338301302</v>
+        <v>0.02950656686686112</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2788244981169116</v>
+        <v>0.3047961642504585</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2454,19 +2454,19 @@
         <v>2929</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1220</v>
+        <v>1092</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5897</v>
+        <v>5875</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.163618006621135</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06817496217995204</v>
+        <v>0.06099815947006089</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3294635990501003</v>
+        <v>0.3282312005510079</v>
       </c>
     </row>
     <row r="30">
@@ -2483,19 +2483,19 @@
         <v>1614</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3778</v>
+        <v>3759</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.244314064865442</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05583870189110739</v>
+        <v>0.05270970562901666</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5718574208380387</v>
+        <v>0.5690114309336055</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2504,19 +2504,19 @@
         <v>5369</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2999</v>
+        <v>2837</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8251</v>
+        <v>7699</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4754455057206844</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2655722285995014</v>
+        <v>0.25126024685633</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7306234212867219</v>
+        <v>0.6817423742485716</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -2525,19 +2525,19 @@
         <v>6984</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4268</v>
+        <v>3940</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10476</v>
+        <v>10432</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3901419513449497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2384258554762879</v>
+        <v>0.22009924984559</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.585276583805184</v>
+        <v>0.5828181527681695</v>
       </c>
     </row>
     <row r="31">
@@ -2629,19 +2629,19 @@
         <v>45042</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36721</v>
+        <v>35534</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52092</v>
+        <v>52051</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6604178593495731</v>
+        <v>0.6604178593495733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5384108253908525</v>
+        <v>0.521004662573467</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7637942367961023</v>
+        <v>0.7631848579243622</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -2650,19 +2650,19 @@
         <v>20791</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14160</v>
+        <v>14789</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>26846</v>
+        <v>27606</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3629404491677437</v>
+        <v>0.3629404491677438</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2471882249407013</v>
+        <v>0.2581643089871068</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4686449767678267</v>
+        <v>0.4819005010482789</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>84</v>
@@ -2671,19 +2671,19 @@
         <v>65833</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54756</v>
+        <v>54434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76671</v>
+        <v>75476</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.5246193195939544</v>
+        <v>0.5246193195939545</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4363514593602716</v>
+        <v>0.4337816565351309</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.610989819067289</v>
+        <v>0.6014654412638187</v>
       </c>
     </row>
     <row r="33">
@@ -2700,19 +2700,19 @@
         <v>14430</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8984</v>
+        <v>8534</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>23476</v>
+        <v>23433</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2115807135263945</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1317291363678173</v>
+        <v>0.1251276620505174</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3442093984995179</v>
+        <v>0.3435808296974716</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -2721,19 +2721,19 @@
         <v>7000</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3661</v>
+        <v>3639</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11535</v>
+        <v>11646</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1221941080779642</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06390878311198107</v>
+        <v>0.06352683139735023</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2013579249585985</v>
+        <v>0.2032906607537256</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>27</v>
@@ -2742,19 +2742,19 @@
         <v>21430</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>14336</v>
+        <v>13519</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>31034</v>
+        <v>31182</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1707756974877349</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1142450273896167</v>
+        <v>0.1077286613830106</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2473081249189825</v>
+        <v>0.2484912455091787</v>
       </c>
     </row>
     <row r="34">
@@ -2771,19 +2771,19 @@
         <v>8730</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>40</v>
@@ -2792,19 +2792,19 @@
         <v>29494</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>51</v>
@@ -2813,19 +2813,19 @@
         <v>38224</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="35">
